--- a/StructureDefinition-ext-R5-MolecularSequence.relative.xlsx
+++ b/StructureDefinition-ext-R5-MolecularSequence.relative.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2863" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2863" uniqueCount="288">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T20:42:20.5370068+00:00</t>
+    <t>2026-02-20T17:59:09.1776521+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -128,7 +128,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -619,7 +619,7 @@
   </si>
   <si>
     <t>CodeableConcept
-Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-MolecularSequence|0.0.1-snapshot-3|MolecularSequence|4.0.1)</t>
+Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-MolecularSequence|MolecularSequence)</t>
   </si>
   <si>
     <t>Extension.extension:startingSequence.extension:windowStart</t>
@@ -719,15 +719,6 @@
 </t>
   </si>
   <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>Type for orientation</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-orientation-type-for-R4</t>
-  </si>
-  <si>
     <t>Extension.extension:startingSequence.extension:strand</t>
   </si>
   <si>
@@ -757,12 +748,6 @@
   </si>
   <si>
     <t>Extension.extension:startingSequence.extension:strand.value[x]</t>
-  </si>
-  <si>
-    <t>Type for strand</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-strand-type-for-R4</t>
   </si>
   <si>
     <t>Extension.extension:startingSequence.url</t>
@@ -1286,8 +1271,8 @@
     <col min="22" max="22" width="14.4296875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="17.0234375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="56.578125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="16.9609375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="15.3125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
@@ -6704,13 +6689,13 @@
         <v>77</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>222</v>
+        <v>77</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>223</v>
+        <v>77</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>224</v>
+        <v>77</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>77</v>
@@ -6748,13 +6733,13 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B53" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C53" t="s" s="2">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D53" t="s" s="2">
         <v>77</v>
@@ -6779,14 +6764,14 @@
         <v>93</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>77</v>
@@ -6855,7 +6840,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B54" t="s" s="2">
         <v>161</v>
@@ -6958,7 +6943,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B55" t="s" s="2">
         <v>163</v>
@@ -7063,7 +7048,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B56" t="s" s="2">
         <v>165</v>
@@ -7106,7 +7091,7 @@
       </c>
       <c r="Q56" s="2"/>
       <c r="R56" t="s" s="2">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="S56" t="s" s="2">
         <v>77</v>
@@ -7168,7 +7153,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B57" t="s" s="2">
         <v>168</v>
@@ -7197,10 +7182,10 @@
         <v>221</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -7227,13 +7212,13 @@
         <v>77</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>222</v>
+        <v>77</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>235</v>
+        <v>77</v>
       </c>
       <c r="Z57" t="s" s="2">
-        <v>236</v>
+        <v>77</v>
       </c>
       <c r="AA57" t="s" s="2">
         <v>77</v>
@@ -7271,7 +7256,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="B58" t="s" s="2">
         <v>113</v>
@@ -7314,7 +7299,7 @@
       </c>
       <c r="Q58" s="2"/>
       <c r="R58" t="s" s="2">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="S58" t="s" s="2">
         <v>77</v>
@@ -7376,7 +7361,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="B59" t="s" s="2">
         <v>122</v>
@@ -7402,13 +7387,13 @@
         <v>77</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -7479,13 +7464,13 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="B60" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C60" t="s" s="2">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="D60" t="s" s="2">
         <v>77</v>
@@ -7510,14 +7495,14 @@
         <v>93</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>77</v>
@@ -7586,7 +7571,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="B61" t="s" s="2">
         <v>105</v>
@@ -7689,7 +7674,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="B62" t="s" s="2">
         <v>107</v>
@@ -7792,13 +7777,13 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="B63" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C63" t="s" s="2">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="D63" t="s" s="2">
         <v>77</v>
@@ -7823,14 +7808,14 @@
         <v>93</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>77</v>
@@ -7899,7 +7884,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="B64" t="s" s="2">
         <v>161</v>
@@ -8002,7 +7987,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="B65" t="s" s="2">
         <v>163</v>
@@ -8107,7 +8092,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="B66" t="s" s="2">
         <v>165</v>
@@ -8150,7 +8135,7 @@
       </c>
       <c r="Q66" s="2"/>
       <c r="R66" t="s" s="2">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="S66" t="s" s="2">
         <v>77</v>
@@ -8212,7 +8197,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="B67" t="s" s="2">
         <v>168</v>
@@ -8241,10 +8226,10 @@
         <v>136</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
@@ -8315,13 +8300,13 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="B68" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C68" t="s" s="2">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="D68" t="s" s="2">
         <v>77</v>
@@ -8346,14 +8331,14 @@
         <v>93</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="P68" t="s" s="2">
         <v>77</v>
@@ -8422,7 +8407,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="B69" t="s" s="2">
         <v>161</v>
@@ -8525,7 +8510,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="B70" t="s" s="2">
         <v>163</v>
@@ -8630,7 +8615,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="B71" t="s" s="2">
         <v>165</v>
@@ -8673,7 +8658,7 @@
       </c>
       <c r="Q71" s="2"/>
       <c r="R71" t="s" s="2">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="S71" t="s" s="2">
         <v>77</v>
@@ -8735,7 +8720,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="B72" t="s" s="2">
         <v>168</v>
@@ -8764,10 +8749,10 @@
         <v>136</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" s="2"/>
@@ -8838,13 +8823,13 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="B73" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C73" t="s" s="2">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="D73" t="s" s="2">
         <v>77</v>
@@ -8869,14 +8854,14 @@
         <v>93</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="P73" t="s" s="2">
         <v>77</v>
@@ -8945,7 +8930,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="B74" t="s" s="2">
         <v>161</v>
@@ -9048,7 +9033,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="B75" t="s" s="2">
         <v>163</v>
@@ -9153,7 +9138,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="B76" t="s" s="2">
         <v>165</v>
@@ -9196,7 +9181,7 @@
       </c>
       <c r="Q76" s="2"/>
       <c r="R76" t="s" s="2">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="S76" t="s" s="2">
         <v>77</v>
@@ -9258,7 +9243,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="B77" t="s" s="2">
         <v>168</v>
@@ -9287,10 +9272,10 @@
         <v>87</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" s="2"/>
@@ -9361,13 +9346,13 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="B78" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C78" t="s" s="2">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="D78" t="s" s="2">
         <v>77</v>
@@ -9392,14 +9377,14 @@
         <v>93</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="P78" t="s" s="2">
         <v>77</v>
@@ -9468,7 +9453,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="B79" t="s" s="2">
         <v>161</v>
@@ -9571,7 +9556,7 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="B80" t="s" s="2">
         <v>163</v>
@@ -9676,7 +9661,7 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="B81" t="s" s="2">
         <v>165</v>
@@ -9719,7 +9704,7 @@
       </c>
       <c r="Q81" s="2"/>
       <c r="R81" t="s" s="2">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="S81" t="s" s="2">
         <v>77</v>
@@ -9781,7 +9766,7 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="B82" t="s" s="2">
         <v>168</v>
@@ -9810,10 +9795,10 @@
         <v>87</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="N82" s="2"/>
       <c r="O82" s="2"/>
@@ -9884,7 +9869,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="B83" t="s" s="2">
         <v>113</v>
@@ -9927,7 +9912,7 @@
       </c>
       <c r="Q83" s="2"/>
       <c r="R83" t="s" s="2">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="S83" t="s" s="2">
         <v>77</v>
@@ -9989,7 +9974,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="B84" t="s" s="2">
         <v>122</v>
@@ -10015,13 +10000,13 @@
         <v>77</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="N84" s="2"/>
       <c r="O84" s="2"/>
@@ -10223,13 +10208,13 @@
         <v>77</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="N86" s="2"/>
       <c r="O86" s="2"/>
